--- a/assets/disciplinas/LOB1057.xlsx
+++ b/assets/disciplinas/LOB1057.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EP-8</t>
+    <t>EA-8,EP-8</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -128,13 +128,6 @@
   </si>
   <si>
     <t>ABRAÃO, J et al. Introdução à Ergonomia: da Prática à Teoria. São Paulo: Edgard Blücher, 2009.COUTO, H.A. Como implantar a ergonomia na empresa. Belo Horizonte: Ergo Editora, 2002.DUL, J.; WEERDMEESTER, B. Ergonomia prática. São Paulo: Edgard Blücher, 2004.GRANDJEAN, E. Manual de Ergonomia. 5ª ed. Porto Alegre; Bookman, 2004.GUÉRIN, E et al. Compreender o trabalho para transformá-lo. São Paulo: Edgard Blücher, 2001. IIDA, I. Ergonomia: Projeto e Produção - 2º edição revista e ampliada. São Paulo: Edgard Blucher, 2005.MÁSCULO, F.S.; VIDAL, N.C.(Org.). Ergonomia: trabalho adequado e eficiente. Rio de Janeiro: Elsevier, 2011.SANTOS, N.; FIALHO, F.A.P., Manual de Análise Ergonômica no Trabalho. Curitiba: Gênesis Editora, 2a. Ed., 1997.VIDAL, M.C. Ergonomia na empresa, útil, prática e aplicada, 2º ed. Rio de Janeiro: Editora CVC, 2002. VIDAL, M.C.; CARVALHO, P.V.R. Ergonomia cognitiva: raciocínio e decisão no trabalho. Rio de Janeiro: Ed. Virtual Científica, 2008.Artigos selecionados pelos Docentes</t>
-  </si>
-  <si>
-    <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4205 -  Sistemas Produtivos II  (Requisito fraco)
-</t>
   </si>
 </sst>
 </file>
@@ -490,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,19 +705,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOB1057.xlsx
+++ b/assets/disciplinas/LOB1057.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Oferecer aos alunos conceitos sobre o Engenharia de Fatores Humanos e as principais técnicas utilizadas para a análise e gestão. Inclui uma visão interdisciplinar, apresentando as variáveis envolvidas na interação humana com o trabalho e a vida diária, envolvendo conceitos relacionados a ergonomia física, engenharia cognitiva, fatores psicossociais, organização do trabalho, higiene industrial e segurança de processos</t>
+    <t>8767640 - Eduardo Ferro dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8767640 - Eduardo Ferro dos Santos</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>8188658 - Maria Auxiliadora Motta Barreto</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>•Mecanismos de Interação Humana •Engenharia Cognitiva •Engenharia Organizacional •Psicossociologia Organizacional •Ergonomia •Higiene e Segurança de Processos •Acessibilidade •Métodos de Análise e Projeto</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>•Mecanismos de Interação Humana - Sistema Homem Máquina, Interação Humano Computador (IHC), Projeto Centrado no Usuário (UX), Usabilidade, Interação Humano Sociedade.•Engenharia Cognitiva – Memória e Tomada de decisão, Educação e Treinamento, Competências e Habilidades, Aspectos da Informação, Aspectos Motivacionais•Engenharia Organizacional – Administração organizacional, Comunicação, Liderança, Trabalho em Grupo, Engenharia do Trabalho•Psicossociologia Organizacional – Aspectos Sociotécnicos, Aspectos Psicossociais, Relacionamento Pessoal e Interpessoal, Ética, Impactos dos Avanços Tecnológicos •Ergonomia – Ergonomia do Processo, Doenças Ocupacionais, Fisiologia, Biomecânica, Fatores Ambientais, Análise da Tarefa, Análise das Atividades, Ergonomia do Produto, Legislação Aplicada•Higiene e Segurança de Processos – Higiene Ocupacional, Toxicologia, Segurança no Trabalho, Segurança de Produto, Segurança de Processos, Legislação Aplicada•Acessibilidade – Diferentes tipos de acessibilidade, Limitações Humanas Especiais, Legislação Aplicada•Métodos de Análise e Projeto - Variáveis Humanas, Análise de Riscos, Análise de Erro Humano, Ferramentas de Avaliação, Ideação, Prototipagem, Testes, Emissão de laudos e documentos</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas Expositivas, Aulas Baseadas em Problemas e Projetos, Atividades Individuais e em Grupo, Seminários. Dadas estas características, haverá múltiplas formas de avaliação definidas pelo docente.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota Final = Média Ponderada das formas de avaliação definidas pelo docente, abrangendo avaliações individuais e em grupo.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ABRAÃO, J et al. Introdução à Ergonomia: da Prática à Teoria. São Paulo: Edgard Blücher, 2009.COUTO, H.A. Como implantar a ergonomia na empresa. Belo Horizonte: Ergo Editora, 2002.DUL, J.; WEERDMEESTER, B. Ergonomia prática. São Paulo: Edgard Blücher, 2004.GRANDJEAN, E. Manual de Ergonomia. 5ª ed. Porto Alegre; Bookman, 2004.GUÉRIN, E et al. Compreender o trabalho para transformá-lo. São Paulo: Edgard Blücher, 2001. IIDA, I. Ergonomia: Projeto e Produção - 2º edição revista e ampliada. São Paulo: Edgard Blucher, 2005.MÁSCULO, F.S.; VIDAL, N.C.(Org.). Ergonomia: trabalho adequado e eficiente. Rio de Janeiro: Elsevier, 2011.SANTOS, N.; FIALHO, F.A.P., Manual de Análise Ergonômica no Trabalho. Curitiba: Gênesis Editora, 2a. Ed., 1997.VIDAL, M.C. Ergonomia na empresa, útil, prática e aplicada, 2º ed. Rio de Janeiro: Editora CVC, 2002. VIDAL, M.C.; CARVALHO, P.V.R. Ergonomia cognitiva: raciocínio e decisão no trabalho. Rio de Janeiro: Ed. Virtual Científica, 2008.Artigos selecionados pelos Docentes</t>
   </si>
 </sst>
 </file>
@@ -483,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,56 +596,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -672,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -681,28 +675,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1057.xlsx
+++ b/assets/disciplinas/LOB1057.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Oferecer aos alunos conceitos sobre o Engenharia de Fatores Humanos e as principais técnicas utilizadas para a análise e gestão. Inclui uma visão interdisciplinar, apresentando as variáveis envolvidas na interação humana com o trabalho e a vida diária, envolvendo conceitos relacionados a ergonomia física, engenharia cognitiva, fatores psicossociais, organização do trabalho, higiene industrial e segurança de processos</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8767640 - Eduardo Ferro dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>•Mecanismos de Interação Humana •Engenharia Cognitiva •Engenharia Organizacional •Psicossociologia Organizacional •Ergonomia •Higiene e Segurança de Processos •Acessibilidade •Métodos de Análise e Projeto</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>•Mecanismos de Interação Humana - Sistema Homem Máquina, Interação Humano Computador (IHC), Projeto Centrado no Usuário (UX), Usabilidade, Interação Humano Sociedade.•Engenharia Cognitiva – Memória e Tomada de decisão, Educação e Treinamento, Competências e Habilidades, Aspectos da Informação, Aspectos Motivacionais•Engenharia Organizacional – Administração organizacional, Comunicação, Liderança, Trabalho em Grupo, Engenharia do Trabalho•Psicossociologia Organizacional – Aspectos Sociotécnicos, Aspectos Psicossociais, Relacionamento Pessoal e Interpessoal, Ética, Impactos dos Avanços Tecnológicos •Ergonomia – Ergonomia do Processo, Doenças Ocupacionais, Fisiologia, Biomecânica, Fatores Ambientais, Análise da Tarefa, Análise das Atividades, Ergonomia do Produto, Legislação Aplicada•Higiene e Segurança de Processos – Higiene Ocupacional, Toxicologia, Segurança no Trabalho, Segurança de Produto, Segurança de Processos, Legislação Aplicada•Acessibilidade – Diferentes tipos de acessibilidade, Limitações Humanas Especiais, Legislação Aplicada•Métodos de Análise e Projeto - Variáveis Humanas, Análise de Riscos, Análise de Erro Humano, Ferramentas de Avaliação, Ideação, Prototipagem, Testes, Emissão de laudos e documentos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>8188658 - Maria Auxiliadora Motta Barreto</t>
+    <t>Aulas Expositivas, Aulas Baseadas em Problemas e Projetos, Atividades Individuais e em Grupo, Seminários. Dadas estas características, haverá múltiplas formas de avaliação definidas pelo docente.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas Expositivas, Aulas Baseadas em Problemas e Projetos, Atividades Individuais e em Grupo, Seminários. Dadas estas características, haverá múltiplas formas de avaliação definidas pelo docente.</t>
+    <t>Nota Final = Média Ponderada das formas de avaliação definidas pelo docente, abrangendo avaliações individuais e em grupo.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota Final = Média Ponderada das formas de avaliação definidas pelo docente, abrangendo avaliações individuais e em grupo.</t>
+    <t>NF = (MF + PR)/2, onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota da recuperação.</t>
+    <t>ABRAÃO, J et al. Introdução à Ergonomia: da Prática à Teoria. São Paulo: Edgard Blücher, 2009.COUTO, H.A. Como implantar a ergonomia na empresa. Belo Horizonte: Ergo Editora, 2002.DUL, J.; WEERDMEESTER, B. Ergonomia prática. São Paulo: Edgard Blücher, 2004.GRANDJEAN, E. Manual de Ergonomia. 5ª ed. Porto Alegre; Bookman, 2004.GUÉRIN, E et al. Compreender o trabalho para transformá-lo. São Paulo: Edgard Blücher, 2001. IIDA, I. Ergonomia: Projeto e Produção - 2º edição revista e ampliada. São Paulo: Edgard Blucher, 2005.MÁSCULO, F.S.; VIDAL, N.C.(Org.). Ergonomia: trabalho adequado e eficiente. Rio de Janeiro: Elsevier, 2011.SANTOS, N.; FIALHO, F.A.P., Manual de Análise Ergonômica no Trabalho. Curitiba: Gênesis Editora, 2a. Ed., 1997.VIDAL, M.C. Ergonomia na empresa, útil, prática e aplicada, 2º ed. Rio de Janeiro: Editora CVC, 2002. VIDAL, M.C.; CARVALHO, P.V.R. Ergonomia cognitiva: raciocínio e decisão no trabalho. Rio de Janeiro: Ed. Virtual Científica, 2008.Artigos selecionados pelos Docentes</t>
   </si>
 </sst>
 </file>
@@ -471,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,62 +608,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -666,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -675,6 +681,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
